--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav\Desktop\git toturioal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A464A-28C3-447F-A749-F102BA5F1A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17487A8-FDC3-4287-B3E6-87AF131CE718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2568" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>dadsf</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>dvbs</t>
+  </si>
+  <si>
+    <t>xvslkdfh</t>
+  </si>
+  <si>
+    <t>fsdh;</t>
   </si>
 </sst>
 </file>
@@ -366,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,17 +388,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -400,14 +406,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
